--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1794007.371793702</v>
+        <v>-1764193.489112557</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11031079.15072583</v>
+        <v>11052761.38728496</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>31.5506869772999</v>
-      </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>83.44081466016651</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>207.1861041616484</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.6608736168925</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>9.625170282129078</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,10 +905,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>152.6570127102263</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>41.042466460449</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,7 +1054,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12.62303927401137</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>18.56883813509699</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>313.2064866749066</v>
+        <v>267.8388318630743</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>34.6514067563072</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362454</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1379,13 +1379,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948849</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>195.2568882679582</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>122.6391170798908</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>2.008513159454827</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.0131344328856</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561535</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>228.207631694666</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>26.70160847752048</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2327,7 +2327,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948845</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>124.6962773732646</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>90.32734763589799</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2524,7 +2524,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.5374882145422</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>143.3627470649799</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932868</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>2.008513159454771</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -3001,7 +3001,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>20.56754178381338</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800052</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3193,7 +3193,7 @@
         <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730224</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
         <v>158.704273159114</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3509,13 +3509,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561369</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H38" t="n">
         <v>270.0031426724685</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925394</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169443</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267643</v>
       </c>
       <c r="W38" t="n">
         <v>384.5711897043296</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277812</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432399</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934416</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3718,13 +3718,13 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W40" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811742</v>
       </c>
       <c r="Y40" t="n">
         <v>208.9097636402854</v>
@@ -3743,7 +3743,7 @@
         <v>417.5253377496635</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E41" t="n">
         <v>413.2012870545404</v>
@@ -3755,7 +3755,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3800,7 +3800,7 @@
         <v>342.7550702267644</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043304</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X41" t="n">
         <v>398.715328447735</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934497</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>417.5253377496635</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
         <v>413.2012870545404</v>
@@ -3992,7 +3992,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934497</v>
+        <v>4.96793274293448</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1296.390203640892</v>
+        <v>775.899312344372</v>
       </c>
       <c r="C2" t="n">
-        <v>867.8085293781605</v>
+        <v>775.899312344372</v>
       </c>
       <c r="D2" t="n">
-        <v>835.9391485930091</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="E2" t="n">
-        <v>407.3574743302775</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4337,7 +4337,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
         <v>267.8706684926505</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1184.185436044719</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1184.185436044719</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1184.185436044719</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.649370085396</v>
+        <v>1184.185436044719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1318.649370085396</v>
+        <v>775.899312344372</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4404,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>637.4636583561241</v>
+        <v>630.8013258914481</v>
       </c>
       <c r="C4" t="n">
-        <v>464.9019468393491</v>
+        <v>458.239614374673</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>292.3616215761957</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
         <v>122.603617826933</v>
@@ -4492,19 +4492,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>733.0807024135913</v>
+        <v>876.1930805580356</v>
       </c>
       <c r="X4" t="n">
-        <v>733.0807024135913</v>
+        <v>630.8013258914481</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.0807024135913</v>
+        <v>630.8013258914481</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6066390714051</v>
+        <v>1421.568656555254</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5045702952325</v>
+        <v>983.4261837386773</v>
       </c>
       <c r="D5" t="n">
-        <v>376.6351895100811</v>
+        <v>951.5568029535259</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9008487087803</v>
+        <v>921.8224621522252</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>493.9550325614329</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>339.7560298238305</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>562.65049978128</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>562.65049978128</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>562.65049978128</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>562.65049978128</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1189.145706210984</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640688</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599283</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="U5" t="n">
-        <v>1655.726393251681</v>
+        <v>2272.071460669356</v>
       </c>
       <c r="V5" t="n">
-        <v>1293.109443185507</v>
+        <v>2272.071460669356</v>
       </c>
       <c r="W5" t="n">
-        <v>888.2539885965407</v>
+        <v>1867.21600608039</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1519292162554</v>
+        <v>1448.0735426597</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9062095563129</v>
+        <v>1443.827822999758</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083433</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.68954842750439</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>401.2478733937167</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>429.4587135897364</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>429.4587135897364</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>429.4587135897364</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>429.4587135897364</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>429.4587135897364</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>800.5379433870891</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5379433870891</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>444.7792737761693</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.2055604317366</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.9640150028722</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>830.1738967708333</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1289.657763951746</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1595.924845291884</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2015.594094517666</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488007</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="R7" t="n">
-        <v>1684.432885359194</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="S7" t="n">
-        <v>1525.191516657191</v>
+        <v>2372.052394650336</v>
       </c>
       <c r="T7" t="n">
-        <v>1279.312070235646</v>
+        <v>2353.295992493673</v>
       </c>
       <c r="U7" t="n">
-        <v>1279.312070235646</v>
+        <v>2353.295992493673</v>
       </c>
       <c r="V7" t="n">
-        <v>992.3565621060761</v>
+        <v>2066.340484364103</v>
       </c>
       <c r="W7" t="n">
-        <v>992.3565621060761</v>
+        <v>1794.314079950395</v>
       </c>
       <c r="X7" t="n">
-        <v>992.3565621060761</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>992.3565621060761</v>
+        <v>1321.502654597915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>949.4529008264926</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>915.3508320503199</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>486.7691577875882</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X8" t="n">
-        <v>975.9577869309389</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y8" t="n">
-        <v>971.7120672709964</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>643.972270890032</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>608.9708499240651</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>608.9708499240651</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>439.2128461748023</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.765608785789</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1388.81010065622</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1116.783696242511</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>871.3919415759237</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.972270890032</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1987.035525048265</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1548.893052231688</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1112.983267406133</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>679.2085225644278</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>679.2085225644278</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>277.8106911876916</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904697</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618697</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618697</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>80.16472174618697</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>80.16472174618697</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>492.0552635849307</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N11" t="n">
-        <v>1484.093695193994</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O11" t="n">
-        <v>2464.273361764301</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597697</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556292</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309348</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4008.236087309348</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4008.236087309348</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4008.236087309348</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3645.619137243175</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3240.763682654208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2821.621219233519</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2413.335095533173</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374798</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206753</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.669302047629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299745</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618697</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>80.16472174618697</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>80.16472174618697</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>80.16472174618697</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>80.16472174618697</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>80.16472174618697</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>80.16472174618697</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>265.7696000193824</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380222</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172429</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.240737869171</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>644.3628418288772</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>478.4848490303999</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>308.7268452811371</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>308.7268452811371</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>308.7268452811371</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715116</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618697</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108768</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820125</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499735</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.28569523081</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>1991.852694483915</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.897186354346</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.870781940637</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.47902727405</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>960.0593565881582</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5267,7 +5267,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5276,52 +5276,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L14" t="n">
-        <v>306.120802776629</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.16863798718</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>845.1948155628801</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>679.3168227644028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>509.55881901514</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>332.8517649768962</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5452,34 +5452,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1209.575145798642</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,37 +5513,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5589,31 +5589,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1004.611946844417</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C19" t="n">
-        <v>832.0502353276421</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D19" t="n">
-        <v>666.1722425291648</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E19" t="n">
-        <v>496.4142387799021</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1196.430565563404</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,19 +5750,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993933</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5938,22 +5938,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,13 +5990,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2769.623329187108</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N23" t="n">
         <v>3569.079287993933</v>
@@ -6063,28 +6063,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.396843814754</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>968.8351322979789</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>447.7518095570423</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>282.16053458287</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6172,25 +6172,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6206,58 +6206,58 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3135.398407382221</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4115.578073952527</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785923</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
         <v>4187.483659846699</v>
@@ -6282,16 +6282,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
         <v>143.9964924545671</v>
@@ -6300,28 +6300,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1011.560997133398</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>838.9992856166232</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>673.1212928181459</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
         <v>673.1212928181459</v>
@@ -6373,10 +6373,10 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961042</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176682</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.233352746989</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580385</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6519,16 +6519,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
         <v>143.9964924545671</v>
@@ -6540,28 +6540,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1082.867562242341</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1015.441008084184</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C31" t="n">
-        <v>842.8792965674086</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>509.55881901514</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>332.8517649768962</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961042</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6649,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2517.485965445823</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2239.052964698928</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1952.097456569358</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1680.07105215565</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1434.679297489062</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1207.259626803171</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6756,16 +6756,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
         <v>143.9964924545671</v>
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8191652369919</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>426.8191652369919</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>426.8191652369919</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>426.8191652369919</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>426.8191652369919</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
         <v>1107.588885023173</v>
@@ -6841,22 +6841,22 @@
         <v>760.8807595030275</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832281</v>
+        <v>174.5210820832277</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
         <v>495.7456864773249</v>
@@ -6917,49 +6917,49 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>532.8213911287357</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>1607.881357381595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2208.641474809399</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>3334.372458245846</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
         <v>4811.083017387606</v>
@@ -6971,13 +6971,13 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W35" t="n">
         <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7008,34 +7008,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>1296.291537768318</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
         <v>1760.806465154627</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F37" t="n">
         <v>442.520979946312</v>
@@ -7087,7 +7087,7 @@
         <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882665</v>
       </c>
       <c r="I37" t="n">
         <v>97.56670367581786</v>
@@ -7123,22 +7123,22 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U37" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X37" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835853</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197254</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>444.7825334645019</v>
       </c>
       <c r="K38" t="n">
-        <v>240.5680377815986</v>
+        <v>1279.13282542268</v>
       </c>
       <c r="L38" t="n">
-        <v>240.5680377815986</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M38" t="n">
-        <v>1397.615872992149</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
         <v>4607.415497673521</v>
@@ -7211,13 +7211,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
         <v>1102.894748428211</v>
@@ -7309,55 +7309,55 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E40" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716793</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463113</v>
+        <v>442.5209799463118</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823632</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301956</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.22416169496</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156102</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361803</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461495</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579743</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290616</v>
       </c>
       <c r="T40" t="n">
         <v>2465.473625281948</v>
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>1228.461808239093</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239093</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>283.1715819490133</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
         <v>293.3294123850158</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7576,16 +7576,16 @@
         <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301958</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694963</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7594,25 +7594,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
@@ -7646,13 +7646,13 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581786</v>
+        <v>444.7825334645028</v>
       </c>
       <c r="K44" t="n">
-        <v>931.9169956339958</v>
+        <v>1279.132825422681</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.976961886855</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="M44" t="n">
         <v>2354.19279167554</v>
@@ -7722,31 +7722,31 @@
         <v>97.56670367581786</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>562.081631062127</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>562.081631062127</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
         <v>293.3294123850158</v>
@@ -7822,34 +7822,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7985,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
@@ -8052,28 +8052,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8140,22 +8140,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>77.5453909710256</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,13 +8289,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>28.49579817779761</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>309.3606882223614</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623674</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827337</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>216.346812327467</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8942,10 +8942,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>288.735183296506</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>353.221552644422</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,19 +9474,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9638,16 +9638,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N23" t="n">
-        <v>807.5312715220462</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>809.1209754020515</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,7 +9893,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523894</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10133,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>689.5283227345933</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>257.1019996862992</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>606.8284014422265</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>747.7485021910729</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,22 +10659,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K38" t="n">
-        <v>144.4457920260412</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>327.873257254562</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5402147526235</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>747.7485021910729</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>187.4796750234297</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>350.723060392611</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>350.7230603926109</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11370,19 +11370,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>469.2069973599083</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>340.1479406347178</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>141.9150478346658</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>49.44397549450483</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>228.1414927324797</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>259.6809700874423</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>-2.862478578571964e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>90.98196474325769</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>48.19697732171649</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.1323395461472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>55.87832135360779</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>39.52293549722788</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>48.17580493063123</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.36294431725506</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>81.78272691405286</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>869258.6718250873</v>
+        <v>724211.5035582276</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>948243.3233858015</v>
+        <v>961074.4679185941</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>948243.3233858015</v>
+        <v>963209.1258550023</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818185.8273762146</v>
+        <v>976291.1321117592</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>976291.1321117592</v>
+        <v>976291.1321117594</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>976291.1321117592</v>
+        <v>976291.1321117594</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>976291.1321117592</v>
+        <v>976291.1321117594</v>
       </c>
     </row>
     <row r="10">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24484.28800744059</v>
+        <v>20218.19482312119</v>
       </c>
       <c r="C2" t="n">
+        <v>26807.36599452042</v>
+      </c>
+      <c r="D2" t="n">
         <v>26807.36599452043</v>
       </c>
-      <c r="D2" t="n">
-        <v>26807.36599452042</v>
-      </c>
       <c r="E2" t="n">
-        <v>22076.78602254822</v>
+        <v>26342.87920686762</v>
       </c>
       <c r="F2" t="n">
-        <v>26342.87920686762</v>
+        <v>26342.87920686763</v>
       </c>
       <c r="G2" t="n">
         <v>26342.87920686762</v>
       </c>
       <c r="H2" t="n">
-        <v>26342.87920686763</v>
+        <v>26342.87920686761</v>
       </c>
       <c r="I2" t="n">
         <v>26342.87920686761</v>
       </c>
       <c r="J2" t="n">
+        <v>26342.87920686762</v>
+      </c>
+      <c r="K2" t="n">
         <v>26342.87920686761</v>
       </c>
-      <c r="K2" t="n">
-        <v>26342.87920686762</v>
-      </c>
       <c r="L2" t="n">
-        <v>26807.36599452043</v>
+        <v>26807.36599452044</v>
       </c>
       <c r="M2" t="n">
         <v>26807.36599452043</v>
       </c>
       <c r="N2" t="n">
-        <v>26807.36599452042</v>
+        <v>26807.36599452044</v>
       </c>
       <c r="O2" t="n">
         <v>26807.36599452043</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246215</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106428</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.370072525</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471788</v>
+        <v>1.4210854715202e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338203</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099787</v>
+        <v>21768.74196143526</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978841</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341126</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179442.2442618193</v>
+        <v>130743.3336435126</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171068.0601277516</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>68250.85363567095</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="F4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
         <v>81439.57146904283</v>
@@ -26442,19 +26442,19 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>86781.92928567612</v>
+        <v>86781.9292856761</v>
       </c>
       <c r="M4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500366</v>
       </c>
       <c r="N4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500369</v>
       </c>
       <c r="O4" t="n">
-        <v>94325.77438500363</v>
+        <v>94325.77438500369</v>
       </c>
       <c r="P4" t="n">
         <v>94325.77438500366</v>
@@ -26470,43 +26470,43 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295556</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710209</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826064</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
         <v>75515.61472608973</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-356574.045051311</v>
+        <v>-312470.6861758936</v>
       </c>
       <c r="C6" t="n">
-        <v>-238578.3949845686</v>
+        <v>-283733.1087286489</v>
       </c>
       <c r="D6" t="n">
-        <v>-238578.3949845687</v>
+        <v>-223444.55002786</v>
       </c>
       <c r="E6" t="n">
-        <v>-279606.6262127498</v>
+        <v>-315193.2644284001</v>
       </c>
       <c r="F6" t="n">
-        <v>-211953.8365726856</v>
+        <v>-132838.1552073504</v>
       </c>
       <c r="G6" t="n">
-        <v>-132814.9308679677</v>
+        <v>-132838.1552073504</v>
       </c>
       <c r="H6" t="n">
-        <v>-132814.9308679677</v>
+        <v>-132838.1552073504</v>
       </c>
       <c r="I6" t="n">
-        <v>-132814.9308679677</v>
+        <v>-132838.1552073503</v>
       </c>
       <c r="J6" t="n">
-        <v>-243829.3962129579</v>
+        <v>-243852.6205523406</v>
       </c>
       <c r="K6" t="n">
-        <v>-132814.9308679677</v>
+        <v>-186506.4822707324</v>
       </c>
       <c r="L6" t="n">
-        <v>-152046.2901004142</v>
+        <v>-160826.4637908516</v>
       </c>
       <c r="M6" t="n">
-        <v>-272392.4445144571</v>
+        <v>-280611.723854425</v>
       </c>
       <c r="N6" t="n">
-        <v>-210683.2233899843</v>
+        <v>-143034.023116573</v>
       </c>
       <c r="O6" t="n">
-        <v>-143034.0231165729</v>
+        <v>-143034.023116573</v>
       </c>
       <c r="P6" t="n">
         <v>-143034.023116573</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179806</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977202</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072327</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.201481557408</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179806</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977202</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702111</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>276.201481557408</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179806</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977202</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072327</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.201481557408</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>75.95150702102598</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>186.8095460540027</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.23955891490473</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,10 +27625,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>244.7268403527424</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>215.5876131957043</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>8.580603807670467</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>224.8518138222323</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,19 +27904,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>101.7445521115758</v>
+        <v>147.1122069234081</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>136.1846876453001</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.235710338746</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874663</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.2357103387485</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.2357103387485</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34705,10 +34705,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
@@ -34772,28 +34772,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34860,22 +34860,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>77.5453909710256</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>28.49579817779761</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,22 +35091,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>309.3606882223614</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623674</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827337</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>216.346812327467</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35662,10 +35662,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>288.735183296506</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,16 +35975,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>353.221552644422</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36358,16 +36358,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081364</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N23" t="n">
-        <v>807.5312715220462</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>809.1209754020515</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36613,7 +36613,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523894</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36853,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>689.5283227345933</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>257.1019996862992</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>606.8284014422265</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>747.7485021910729</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K38" t="n">
-        <v>144.4457920260412</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>327.873257254562</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L40" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033046</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5402147526235</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>747.7485021910729</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>187.4796750234297</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37944,19 +37944,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033072</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>350.723060392611</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>350.7230603926109</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>469.2069973599083</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552555</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
         <v>186.127402120901</v>
